--- a/Project/ResultTable.xlsx
+++ b/Project/ResultTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -56,14 +56,17 @@
     <t>GLS</t>
   </si>
   <si>
-    <t>PICs</t>
+    <t>AIC Values</t>
+  </si>
+  <si>
+    <t>Not a valid thing to do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,36 +75,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,29 +169,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,165 +484,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5">
         <v>-451.334</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
+        <v>908.66790000000003</v>
+      </c>
+      <c r="D2" s="5">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>13.13198</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>-197.1063</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
+        <v>400.21269999999998</v>
+      </c>
+      <c r="D3" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>1.3171459999999999</v>
       </c>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="10">
         <v>-194.88829999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
+        <v>395.7765</v>
+      </c>
+      <c r="D4" s="12">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="10">
         <v>1.3302369999999999</v>
       </c>
+      <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>-193.1446</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8">
+        <v>394.28919999999999</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>1.2719469999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-451.334</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7.77E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.3190000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-197.1063</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1E-4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.3171459999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>-194.88829999999999</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.3302369999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>-193.1446</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.2719469999999999</v>
-      </c>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:D5">
